--- a/tables/TableX_intake_proxy_key.xlsx
+++ b/tables/TableX_intake_proxy_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/fortification/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B143DC8-09DC-044E-BCFC-E54BFB4D7BDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EA1C84-1B97-E741-953B-349B68B5E022}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="500" windowWidth="18160" windowHeight="16480" xr2:uid="{D4D4BB79-11A7-F642-A55D-2E63BE4EC833}"/>
+    <workbookView xWindow="28820" yWindow="6400" windowWidth="18160" windowHeight="16480" xr2:uid="{D4D4BB79-11A7-F642-A55D-2E63BE4EC833}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
